--- a/biology/Médecine/César_Provençal/César_Provençal.xlsx
+++ b/biology/Médecine/César_Provençal/César_Provençal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9sar_Proven%C3%A7al</t>
+          <t>César_Provençal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">César Provençal, né à Cagnes-sur-Mer le 20 juin 1814[1], est un médecin français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">César Provençal, né à Cagnes-sur-Mer le 20 juin 1814, est un médecin français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9sar_Proven%C3%A7al</t>
+          <t>César_Provençal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">César Provençal soutint sa thèse de médecine en mars 1841 [2] à l'âge de 28 ans, à la faculté de médecine de Montpellier.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">César Provençal soutint sa thèse de médecine en mars 1841  à l'âge de 28 ans, à la faculté de médecine de Montpellier.
 Il est membre du parti républicain au moment du Coup d'État du 2 décembre 1851 et s'oppose activement à ce dernier. 
 S'étant exilé au Piémont, il y fut un médecin actif. 
 Il revint en France en 1859, et mourut le 8 janvier 1868 à Nice à l'âge de 53 ans.
